--- a/data/input/absenteeism_data_12.xlsx
+++ b/data/input/absenteeism_data_12.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17738</v>
+        <v>91921</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sophie Rocha</t>
+          <t>Bryan da Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>3066.93</v>
+        <v>11507.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>51063</v>
+        <v>83294</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raul Silva</t>
+          <t>Dra. Stella da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>6724.43</v>
+        <v>3584.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33673</v>
+        <v>52558</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Sophia da Rosa</t>
+          <t>Melissa Pinto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,60 +548,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>10503.65</v>
+        <v>12388.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>47662</v>
+        <v>2175</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stella Nogueira</t>
+          <t>Breno Correia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>5734.59</v>
+        <v>3777.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35767</v>
+        <v>28846</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cecília Oliveira</t>
+          <t>Augusto Moraes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,51 +610,51 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>7286.81</v>
+        <v>7751.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24055</v>
+        <v>17519</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Evelyn da Mota</t>
+          <t>Maria Fernanda Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>10070.39</v>
+        <v>6045.07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74598</v>
+        <v>91610</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Oliveira</t>
+          <t>Davi Luiz Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,55 +664,55 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>3503.59</v>
+        <v>5889.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>30361</v>
+        <v>97812</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arthur Santos</t>
+          <t>Isabel Moreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>4429.16</v>
+        <v>4721.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>82545</v>
+        <v>74691</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Diego Novaes</t>
+          <t>Dr. João Gabriel Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>7563.51</v>
+        <v>12174.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68909</v>
+        <v>21354</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sofia da Cunha</t>
+          <t>Raquel Novaes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>3339.97</v>
+        <v>10181.07</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_12.xlsx
+++ b/data/input/absenteeism_data_12.xlsx
@@ -476,214 +476,214 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91921</v>
+        <v>25393</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bryan da Cruz</t>
+          <t>Thales Peixoto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>11507.74</v>
+        <v>10831.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83294</v>
+        <v>41043</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Stella da Mota</t>
+          <t>Elisa Monteiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>3584.93</v>
+        <v>11350.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>52558</v>
+        <v>10209</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Melissa Pinto</t>
+          <t>Evelyn Pires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>12388.25</v>
+        <v>5150.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2175</v>
+        <v>29180</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Breno Correia</t>
+          <t>Sr. Vitor Gabriel Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>3777.02</v>
+        <v>6336.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28846</v>
+        <v>41026</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Augusto Moraes</t>
+          <t>Srta. Clarice Santos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>7751.41</v>
+        <v>6644.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17519</v>
+        <v>49518</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Fernanda Costa</t>
+          <t>Pedro Miguel Melo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>6045.07</v>
+        <v>11835.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91610</v>
+        <v>97345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Davi Luiz Cardoso</t>
+          <t>Maysa Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>5889.29</v>
+        <v>11893.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97812</v>
+        <v>27869</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isabel Moreira</t>
+          <t>Dr. Antônio Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>4721.63</v>
+        <v>10237.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74691</v>
+        <v>851</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. João Gabriel Rezende</t>
+          <t>Isadora das Neves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45103</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>12174.33</v>
+        <v>10444.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21354</v>
+        <v>76649</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Raquel Novaes</t>
+          <t>Marina Moura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>10181.07</v>
+        <v>4003.51</v>
       </c>
     </row>
   </sheetData>
